--- a/SpaOnline/ModeloDominio/CitaReserva - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/CitaReserva - Muestreo Datos.xlsx
@@ -5,19 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9350FCD-CEE9-4D09-96E5-9C4E3FD6F55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72DE751-9E38-4955-8AA1-23F821C66D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
-    <sheet name="CitaReserva" sheetId="5" r:id="rId3"/>
-    <sheet name="Sucursales" sheetId="3" r:id="rId4"/>
-    <sheet name="Servicios" sheetId="6" r:id="rId5"/>
+    <sheet name="Cliente" sheetId="7" r:id="rId3"/>
+    <sheet name="CitaReservaServicio" sheetId="8" r:id="rId4"/>
+    <sheet name="CitaReserva" sheetId="5" r:id="rId5"/>
+    <sheet name="Consentimiento" sheetId="9" r:id="rId6"/>
+    <sheet name="Sucursales" sheetId="3" r:id="rId7"/>
+    <sheet name="Servicios" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -71,9 +74,6 @@
     <t>TipoObjetoDominio</t>
   </si>
   <si>
-    <t>Contextro</t>
-  </si>
-  <si>
     <t>Propio</t>
   </si>
   <si>
@@ -83,9 +83,6 @@
     <t>Combinacion única</t>
   </si>
   <si>
-    <t>Producto</t>
-  </si>
-  <si>
     <t>CitaReserva</t>
   </si>
   <si>
@@ -207,6 +204,84 @@
   </si>
   <si>
     <t>05/05/2024</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>CitaReservaServicio</t>
+  </si>
+  <si>
+    <t>Consentimiento</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion de los clientes</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la reserva del servicio disponible</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion del consentimiento</t>
+  </si>
+  <si>
+    <t>Contexto</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Nombre Completo</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Martina Corrales</t>
+  </si>
+  <si>
+    <t>martina.corrales@gmail.com</t>
+  </si>
+  <si>
+    <t>Vereda Pontezuela</t>
+  </si>
+  <si>
+    <t>Ramiro Ramirez</t>
+  </si>
+  <si>
+    <t>ramiro.ramirez@outlook.com</t>
+  </si>
+  <si>
+    <t>CR 49 48 02</t>
+  </si>
+  <si>
+    <t>Lucrecia Gomez</t>
+  </si>
+  <si>
+    <t>lucrecia.gomez@hotmail.com</t>
+  </si>
+  <si>
+    <t>CL 98 75 23</t>
+  </si>
+  <si>
+    <t>Autorización</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Estado de la Reserva</t>
+  </si>
+  <si>
+    <t>Documento de Identificación</t>
+  </si>
+  <si>
+    <t>Numero Telefonico</t>
   </si>
 </sst>
 </file>
@@ -286,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -313,6 +388,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -731,82 +809,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
+      <c r="D7" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{8EFF29E0-6B07-4522-918B-B10FC37D7D6D}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{D85578A5-01DB-4CE4-84EB-E6E7CC86B3E6}"/>
-    <hyperlink ref="C3" location="Sucursales!A1" display="Referenciado" xr:uid="{C2C27A26-9F26-4F3C-9EC9-DC99886623EE}"/>
-    <hyperlink ref="C4" location="Servicios!A1" display="Referenciado" xr:uid="{B7D4804B-6051-4D79-AD41-2B1639254A0D}"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{8EFF29E0-6B07-4522-918B-B10FC37D7D6D}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{D85578A5-01DB-4CE4-84EB-E6E7CC86B3E6}"/>
+    <hyperlink ref="C6" location="Sucursales!A1" display="Referenciado" xr:uid="{C2C27A26-9F26-4F3C-9EC9-DC99886623EE}"/>
+    <hyperlink ref="C7" location="Servicios!A1" display="Referenciado" xr:uid="{B7D4804B-6051-4D79-AD41-2B1639254A0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
@@ -814,11 +934,215 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE5137F-269A-4BBF-8793-E8FCF1AB8F55}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="82.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3116987523</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f>+C2&amp;"-"&amp;B2&amp;"-"&amp;D2&amp;"-"&amp;E2&amp;"-"&amp;F2</f>
+        <v>1234567890-Martina Corrales-3116987523-martina.corrales@gmail.com-Vereda Pontezuela</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1">
+        <v>987654321</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3639874520</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f t="shared" ref="G3:G4" si="0">+C3&amp;"-"&amp;B3&amp;"-"&amp;D3&amp;"-"&amp;E3&amp;"-"&amp;F3</f>
+        <v>987654321-Ramiro Ramirez-3639874520-ramiro.ramirez@outlook.com-CR 49 48 02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1">
+        <v>39789321</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3793175677</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>39789321-Lucrecia Gomez-3793175677-lucrecia.gomez@hotmail.com-CL 98 75 23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{C3344FFB-5162-468B-8BBC-B6332951149F}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{76E88723-9F05-4676-BECF-5F3828D71ED8}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{7F2F33AC-D77D-48E7-8D80-1221B412A616}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820898BB-1170-416A-9209-732011E756FB}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="str">
+        <f>+B2&amp;"-"&amp;C2</f>
+        <v>Reservado-Limpieza facial</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f t="shared" ref="D3:D4" si="0">+B3&amp;"-"&amp;C3</f>
+        <v>No Reservado-Masaje completo</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Reservado-Chocolaterapia</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,104 +1151,91 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="5" t="str">
-        <f>+B2&amp;"-"&amp;C2&amp;"-"&amp;D2&amp;"-"&amp;E2&amp;"-"&amp;F2</f>
-        <v>16/03/2024-3:00pm-Reservado-Limpieza facial-El poblado</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f>+B2&amp;"-"&amp;C2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
+        <v>16/03/2024-3:00pm-Reservado-El poblado</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G4" si="0">+B3&amp;"-"&amp;C3&amp;"-"&amp;D3&amp;"-"&amp;E3&amp;"-"&amp;F3</f>
-        <v>28/04/2024-10:00am-No Reservado-Masaje completo-Chapinero</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f t="shared" ref="F3:F4" si="0">+B3&amp;"-"&amp;C3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
+        <v>28/04/2024-10:00am-No Reservado-Chapinero</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="5" t="str">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>05/05/2024-12:30pm-Reservado-Chocolaterapia-Bocagrande</v>
+        <v>05/05/2024-12:30pm-Reservado-Bocagrande</v>
       </c>
     </row>
   </sheetData>
@@ -932,12 +1243,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7505EC-296A-4FCE-9C22-CF43D5B53206}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f>+B2</f>
+        <v>Martina Corrales</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1">
+        <v>987654321</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f>+B3</f>
+        <v>Ramiro Ramirez</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1">
+        <v>39789321</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f>+B4</f>
+        <v>Lucrecia Gomez</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,25 +1357,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -979,19 +1383,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G2" s="5" t="str">
         <f>+B2&amp;"-"&amp;C2&amp;"-"&amp;D2&amp;"-"&amp;E2&amp;"-"&amp;F2</f>
@@ -1003,19 +1407,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" ref="G3:G4" si="0">+B3&amp;"-"&amp;C3&amp;"-"&amp;D3&amp;"-"&amp;E3&amp;"-"&amp;F3</f>
@@ -1024,22 +1428,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1051,12 +1455,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C51225-C664-4835-BBA4-220D6C13A752}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,13 +1472,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1082,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>+B2</f>
@@ -1094,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C4" si="0">+B3</f>
@@ -1103,10 +1507,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>

--- a/SpaOnline/ModeloDominio/CitaReserva - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/CitaReserva - Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72DE751-9E38-4955-8AA1-23F821C66D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039ADD6F-D6FF-4573-B75B-F7C4F80F6459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -416,20 +416,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>20329</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>556</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39169</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BED785A-023C-FD26-F2EE-00978BCC7A85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02D6240-A0DA-A164-F339-511E4235C3C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -445,8 +445,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19050"/>
-          <a:ext cx="9164329" cy="3982006"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7659169" cy="4496427"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE5137F-269A-4BBF-8793-E8FCF1AB8F55}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
